--- a/furnace_age_EIA.xlsx
+++ b/furnace_age_EIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbiscoch/Documents/Research_remote/GitHub/hp_proj1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbiscoch/Documents/Research_remote/GitHub/Comparing-Top-Down-Heat-Pump-Energy-Consumption-with-Measured-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051AE5C-C513-8942-9D27-AFAA125A2B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09721AE1-151E-0944-BE73-90D39DEB32CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{28D2AC6D-16F6-7441-9814-605686031329}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{28D2AC6D-16F6-7441-9814-605686031329}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Total US Housing Units (millions)</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Year of purchase, Main Heating</t>
   </si>
   <si>
-    <t>(2007-2009]</t>
-  </si>
-  <si>
     <t>[2005, 2007]</t>
   </si>
   <si>
@@ -71,16 +68,16 @@
     <t>Purchased before 2007</t>
   </si>
   <si>
-    <t>[2008-2010)</t>
-  </si>
-  <si>
     <t>2015 RECS</t>
   </si>
   <si>
     <t>[2006-2010]</t>
   </si>
   <si>
-    <t>Purchased after 2007, before 2010</t>
+    <t>[2008-2009]</t>
+  </si>
+  <si>
+    <t>Purchased after and including 2007, before 2010</t>
   </si>
 </sst>
 </file>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC6734-FBD8-8449-A2EF-03E8C36B86EC}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -492,13 +489,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>10.6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>28.4</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>15.9</v>
@@ -514,7 +511,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f>26.3+20.4+11.2+25.7</f>
@@ -523,19 +520,19 @@
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f>B7*$B$4/$B$3</f>
         <v>4.2650317892824701</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <f>E7*E4/E3</f>
@@ -544,55 +541,45 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B14" si="0">B8*$B$4/$B$3</f>
         <v>6.3975476839237064</v>
       </c>
     </row>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>33.637420526793825</v>
       </c>
     </row>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
       </c>
       <c r="B18">
         <f>B13*2/3+B14</f>
         <v>37.902452316076293</v>
       </c>
     </row>
-    <row r="19" spans="1:2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <f>B13/3+B12+E12/4</f>
-        <v>9.3166458271597801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <f>B13/3+B12+E12/5</f>
+        <v>8.7328261985125657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
